--- a/data/zenodo_ivan/conversion/passenger/CHE_convpass_PHEVg.xlsx
+++ b/data/zenodo_ivan/conversion/passenger/CHE_convpass_PHEVg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/Downloads/passenger data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/passenger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACC3DC9-3D80-C84E-9A04-A270FC8CCC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD906FF4-0D84-0543-9DA2-2804655CA71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="-4880" windowWidth="21600" windowHeight="37900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="96">
   <si>
     <t>Name:</t>
   </si>
@@ -182,18 +182,6 @@
     <t>vkm/h</t>
   </si>
   <si>
-    <t>Speed limit built area</t>
-  </si>
-  <si>
-    <t>Speed limit expressway</t>
-  </si>
-  <si>
-    <t>Swiss confederation</t>
-  </si>
-  <si>
-    <t>https://www.ch.ch/en/vehicles-and-traffic/how-to-behave-in-road-traffic/traffic-regulations/driving-over-the-speed-limit/</t>
-  </si>
-  <si>
     <t>Mvkm/unit</t>
   </si>
   <si>
@@ -325,6 +313,15 @@
   <si>
     <t>Efficiency of new BEV cars.</t>
   </si>
+  <si>
+    <t>Federal Office of Spatial Development, Mobility and Transport Microcensus 2021</t>
+  </si>
+  <si>
+    <t>https://www.are.admin.ch/are/en/home/mobility/data/mtmc.html</t>
+  </si>
+  <si>
+    <t>Table G3.3.1.6</t>
+  </si>
 </sst>
 </file>
 
@@ -427,7 +424,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -764,8 +772,8 @@
   <dimension ref="A1:L464"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -786,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -795,7 +803,7 @@
       </c>
       <c r="B2" s="5">
         <f ca="1">TODAY()</f>
-        <v>45029</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -849,7 +857,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -871,7 +879,7 @@
         <v>conv_pass_PHEVg</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -923,7 +931,7 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -946,7 +954,7 @@
         <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -969,7 +977,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -998,11 +1006,11 @@
         <v>44</v>
       </c>
       <c r="J12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1024,16 +1032,16 @@
         <v>1.1307368766878999E-2</v>
       </c>
       <c r="H13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1083,22 +1091,22 @@
         <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15">
-        <v>50</v>
+        <v>38.1</v>
       </c>
       <c r="H15" t="s">
         <v>48</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1117,23 +1125,18 @@
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G16">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s">
         <v>48</v>
       </c>
       <c r="J16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" t="s">
-        <v>50</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
@@ -1157,14 +1160,14 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1189,14 +1192,14 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1221,14 +1224,14 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1253,14 +1256,14 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -1285,14 +1288,14 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -1317,14 +1320,14 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -1349,14 +1352,14 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -1381,14 +1384,14 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -1413,14 +1416,14 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1445,14 +1448,14 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K26" s="2"/>
       <c r="L26" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1477,14 +1480,14 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K27" s="2"/>
       <c r="L27" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1509,14 +1512,14 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K28" s="2"/>
       <c r="L28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -1541,14 +1544,14 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1573,14 +1576,14 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1605,14 +1608,14 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -1637,14 +1640,14 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -1669,14 +1672,14 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J33" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K33" s="2"/>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -1701,14 +1704,14 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K34" s="2"/>
       <c r="L34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -1733,14 +1736,14 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K35" s="2"/>
       <c r="L35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -1765,14 +1768,14 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K36" s="2"/>
       <c r="L36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -1797,14 +1800,14 @@
         <v>1.1341232087573903E-2</v>
       </c>
       <c r="H37" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -1829,14 +1832,14 @@
         <v>3.3488711872193322E-2</v>
       </c>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K38" s="2"/>
       <c r="L38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -1861,14 +1864,14 @@
         <v>0.34320754160734418</v>
       </c>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -1893,14 +1896,14 @@
         <v>1.1476749880700936</v>
       </c>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K40" s="2"/>
       <c r="L40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -1925,14 +1928,14 @@
         <v>5.3018146061566869</v>
       </c>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K41" s="2"/>
       <c r="L41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -1957,14 +1960,14 @@
         <v>20.678620909607467</v>
       </c>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J42" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K42" s="2"/>
       <c r="L42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -1989,14 +1992,14 @@
         <v>45.3627819632189</v>
       </c>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J43" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -2021,14 +2024,14 @@
         <v>74.750550654268821</v>
       </c>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K44" s="2"/>
       <c r="L44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -2053,14 +2056,14 @@
         <v>113.91955227190178</v>
       </c>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -2085,14 +2088,14 @@
         <v>150.27802194055801</v>
       </c>
       <c r="H46" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -2117,14 +2120,14 @@
         <v>230.32824492424859</v>
       </c>
       <c r="H47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J47" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -2149,14 +2152,14 @@
         <v>451.45915758582862</v>
       </c>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J48" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -2184,10 +2187,10 @@
         <v>44</v>
       </c>
       <c r="J49" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -2215,10 +2218,10 @@
         <v>44</v>
       </c>
       <c r="J50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -2246,10 +2249,10 @@
         <v>44</v>
       </c>
       <c r="J51" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -2277,10 +2280,10 @@
         <v>44</v>
       </c>
       <c r="J52" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2308,10 +2311,10 @@
         <v>44</v>
       </c>
       <c r="J53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -2339,10 +2342,10 @@
         <v>44</v>
       </c>
       <c r="J54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -2370,10 +2373,10 @@
         <v>44</v>
       </c>
       <c r="J55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -2401,10 +2404,10 @@
         <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2432,10 +2435,10 @@
         <v>44</v>
       </c>
       <c r="J57" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -2463,10 +2466,10 @@
         <v>44</v>
       </c>
       <c r="J58" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -2494,10 +2497,10 @@
         <v>44</v>
       </c>
       <c r="J59" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -2525,10 +2528,10 @@
         <v>44</v>
       </c>
       <c r="J60" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -2556,10 +2559,10 @@
         <v>44</v>
       </c>
       <c r="J61" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2587,10 +2590,10 @@
         <v>44</v>
       </c>
       <c r="J62" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -2618,10 +2621,10 @@
         <v>44</v>
       </c>
       <c r="J63" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2649,13 +2652,13 @@
         <v>44</v>
       </c>
       <c r="J64" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L64" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -2683,13 +2686,13 @@
         <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L65" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2717,13 +2720,13 @@
         <v>44</v>
       </c>
       <c r="J66" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L66" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -2751,13 +2754,13 @@
         <v>44</v>
       </c>
       <c r="J67" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L67" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -2785,13 +2788,13 @@
         <v>44</v>
       </c>
       <c r="J68" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -2819,13 +2822,13 @@
         <v>44</v>
       </c>
       <c r="J69" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L69" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -2853,13 +2856,13 @@
         <v>44</v>
       </c>
       <c r="J70" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L70" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -2887,13 +2890,13 @@
         <v>44</v>
       </c>
       <c r="J71" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L71" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2921,13 +2924,13 @@
         <v>44</v>
       </c>
       <c r="J72" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L72" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -2955,13 +2958,13 @@
         <v>44</v>
       </c>
       <c r="J73" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L73" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -2989,13 +2992,13 @@
         <v>44</v>
       </c>
       <c r="J74" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L74" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -3023,13 +3026,13 @@
         <v>44</v>
       </c>
       <c r="J75" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L75" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -3057,13 +3060,13 @@
         <v>44</v>
       </c>
       <c r="J76" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L76" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3091,13 +3094,13 @@
         <v>44</v>
       </c>
       <c r="J77" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L77" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -3125,13 +3128,13 @@
         <v>44</v>
       </c>
       <c r="J78" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L78" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3159,13 +3162,13 @@
         <v>44</v>
       </c>
       <c r="J79" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L79" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -3193,13 +3196,13 @@
         <v>44</v>
       </c>
       <c r="J80" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L80" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -3247,11 +3250,11 @@
         <v>44</v>
       </c>
       <c r="J82" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K82" s="2"/>
       <c r="L82" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -3279,11 +3282,11 @@
         <v>44</v>
       </c>
       <c r="J83" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K83" s="2"/>
       <c r="L83" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -3311,11 +3314,11 @@
         <v>44</v>
       </c>
       <c r="J84" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K84" s="2"/>
       <c r="L84" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -3343,11 +3346,11 @@
         <v>44</v>
       </c>
       <c r="J85" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K85" s="2"/>
       <c r="L85" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -3375,11 +3378,11 @@
         <v>44</v>
       </c>
       <c r="J86" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K86" s="2"/>
       <c r="L86" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -3407,11 +3410,11 @@
         <v>44</v>
       </c>
       <c r="J87" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K87" s="2"/>
       <c r="L87" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -3439,11 +3442,11 @@
         <v>44</v>
       </c>
       <c r="J88" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K88" s="2"/>
       <c r="L88" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -3471,11 +3474,11 @@
         <v>44</v>
       </c>
       <c r="J89" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K89" s="2"/>
       <c r="L89" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -3503,11 +3506,11 @@
         <v>44</v>
       </c>
       <c r="J90" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K90" s="2"/>
       <c r="L90" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -3535,11 +3538,11 @@
         <v>44</v>
       </c>
       <c r="J91" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K91" s="2"/>
       <c r="L91" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -3567,11 +3570,11 @@
         <v>44</v>
       </c>
       <c r="J92" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K92" s="2"/>
       <c r="L92" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -3599,11 +3602,11 @@
         <v>44</v>
       </c>
       <c r="J93" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K93" s="2"/>
       <c r="L93" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -3631,11 +3634,11 @@
         <v>44</v>
       </c>
       <c r="J94" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K94" s="2"/>
       <c r="L94" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -3663,11 +3666,11 @@
         <v>44</v>
       </c>
       <c r="J95" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K95" s="2"/>
       <c r="L95" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -3695,13 +3698,13 @@
         <v>44</v>
       </c>
       <c r="J96" t="s">
+        <v>65</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K96" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L96" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -3729,13 +3732,13 @@
         <v>44</v>
       </c>
       <c r="J97" t="s">
+        <v>65</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K97" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L97" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -3763,13 +3766,13 @@
         <v>44</v>
       </c>
       <c r="J98" t="s">
+        <v>65</v>
+      </c>
+      <c r="K98" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L98" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -3797,13 +3800,13 @@
         <v>44</v>
       </c>
       <c r="J99" t="s">
+        <v>65</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K99" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L99" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -3831,13 +3834,13 @@
         <v>44</v>
       </c>
       <c r="J100" t="s">
+        <v>65</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K100" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L100" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -3865,13 +3868,13 @@
         <v>44</v>
       </c>
       <c r="J101" t="s">
+        <v>65</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K101" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L101" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -3899,13 +3902,13 @@
         <v>44</v>
       </c>
       <c r="J102" t="s">
+        <v>65</v>
+      </c>
+      <c r="K102" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K102" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L102" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -3933,13 +3936,13 @@
         <v>44</v>
       </c>
       <c r="J103" t="s">
+        <v>65</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K103" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L103" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -3967,13 +3970,13 @@
         <v>44</v>
       </c>
       <c r="J104" t="s">
+        <v>65</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K104" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L104" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -4001,13 +4004,13 @@
         <v>44</v>
       </c>
       <c r="J105" t="s">
+        <v>65</v>
+      </c>
+      <c r="K105" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K105" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L105" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -4035,13 +4038,13 @@
         <v>44</v>
       </c>
       <c r="J106" t="s">
+        <v>65</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K106" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L106" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -4069,13 +4072,13 @@
         <v>44</v>
       </c>
       <c r="J107" t="s">
+        <v>65</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K107" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L107" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -4103,13 +4106,13 @@
         <v>44</v>
       </c>
       <c r="J108" t="s">
+        <v>65</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L108" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -4137,13 +4140,13 @@
         <v>44</v>
       </c>
       <c r="J109" t="s">
+        <v>65</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K109" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L109" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -4171,13 +4174,13 @@
         <v>44</v>
       </c>
       <c r="J110" t="s">
+        <v>65</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K110" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L110" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -4205,13 +4208,13 @@
         <v>44</v>
       </c>
       <c r="J111" t="s">
+        <v>65</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K111" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L111" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -4239,13 +4242,13 @@
         <v>44</v>
       </c>
       <c r="J112" t="s">
+        <v>65</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K112" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="L112" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -4292,10 +4295,10 @@
         <v>44</v>
       </c>
       <c r="J114" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L114" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -4323,10 +4326,10 @@
         <v>44</v>
       </c>
       <c r="J115" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L115" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -4354,10 +4357,10 @@
         <v>44</v>
       </c>
       <c r="J116" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L116" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -4385,10 +4388,10 @@
         <v>44</v>
       </c>
       <c r="J117" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L117" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -4416,10 +4419,10 @@
         <v>44</v>
       </c>
       <c r="J118" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L118" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -4447,10 +4450,10 @@
         <v>44</v>
       </c>
       <c r="J119" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L119" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -4478,10 +4481,10 @@
         <v>44</v>
       </c>
       <c r="J120" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L120" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -4509,10 +4512,10 @@
         <v>44</v>
       </c>
       <c r="J121" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L121" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -4540,10 +4543,10 @@
         <v>44</v>
       </c>
       <c r="J122" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L122" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -4571,10 +4574,10 @@
         <v>44</v>
       </c>
       <c r="J123" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L123" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -4602,10 +4605,10 @@
         <v>44</v>
       </c>
       <c r="J124" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L124" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -4633,10 +4636,10 @@
         <v>44</v>
       </c>
       <c r="J125" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L125" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -4664,10 +4667,10 @@
         <v>44</v>
       </c>
       <c r="J126" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L126" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -4695,10 +4698,10 @@
         <v>44</v>
       </c>
       <c r="J127" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L127" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -4726,10 +4729,10 @@
         <v>44</v>
       </c>
       <c r="J128" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L128" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -4757,10 +4760,10 @@
         <v>44</v>
       </c>
       <c r="J129" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L129" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -4788,10 +4791,10 @@
         <v>44</v>
       </c>
       <c r="J130" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L130" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -4819,10 +4822,10 @@
         <v>44</v>
       </c>
       <c r="J131" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L131" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -4850,10 +4853,10 @@
         <v>44</v>
       </c>
       <c r="J132" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L132" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -4881,10 +4884,10 @@
         <v>44</v>
       </c>
       <c r="J133" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L133" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -4912,10 +4915,10 @@
         <v>44</v>
       </c>
       <c r="J134" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L134" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -4943,10 +4946,10 @@
         <v>44</v>
       </c>
       <c r="J135" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L135" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -4974,10 +4977,10 @@
         <v>44</v>
       </c>
       <c r="J136" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L136" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -5005,10 +5008,10 @@
         <v>44</v>
       </c>
       <c r="J137" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L137" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -5036,10 +5039,10 @@
         <v>44</v>
       </c>
       <c r="J138" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L138" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -5067,10 +5070,10 @@
         <v>44</v>
       </c>
       <c r="J139" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L139" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -5098,10 +5101,10 @@
         <v>44</v>
       </c>
       <c r="J140" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L140" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -5129,10 +5132,10 @@
         <v>44</v>
       </c>
       <c r="J141" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L141" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -5160,10 +5163,10 @@
         <v>44</v>
       </c>
       <c r="J142" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L142" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -5191,10 +5194,10 @@
         <v>44</v>
       </c>
       <c r="J143" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L143" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -5222,10 +5225,10 @@
         <v>44</v>
       </c>
       <c r="J144" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L144" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -5250,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L145" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -6269,16 +6272,16 @@
         <v>62976.407868129463</v>
       </c>
       <c r="H198" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J198" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K198" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L198" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6303,16 +6306,16 @@
         <v>46902.829165159936</v>
       </c>
       <c r="H199" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J199" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K199" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L199" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -6337,16 +6340,16 @@
         <v>38616.595056079474</v>
       </c>
       <c r="H200" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J200" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K200" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L200" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -6371,16 +6374,16 @@
         <v>34673.511751969862</v>
       </c>
       <c r="H201" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J201" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K201" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L201" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -6405,16 +6408,16 @@
         <v>32502.510184418286</v>
       </c>
       <c r="H202" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J202" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K202" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L202" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -6439,16 +6442,16 @@
         <v>31894.540765152626</v>
       </c>
       <c r="H203" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J203" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K203" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L203" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -7139,16 +7142,16 @@
         <v>64000</v>
       </c>
       <c r="H239" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J239" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K239" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="L239" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -7216,7 +7219,7 @@
         <v>units</v>
       </c>
       <c r="L242" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -7246,7 +7249,7 @@
         <v>units</v>
       </c>
       <c r="L243" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -7276,7 +7279,7 @@
         <v>units</v>
       </c>
       <c r="L244" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -7306,7 +7309,7 @@
         <v>units</v>
       </c>
       <c r="L245" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -7336,7 +7339,7 @@
         <v>units</v>
       </c>
       <c r="L246" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -7366,7 +7369,7 @@
         <v>units</v>
       </c>
       <c r="L247" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -7396,7 +7399,7 @@
         <v>units</v>
       </c>
       <c r="L248" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -7426,7 +7429,7 @@
         <v>units</v>
       </c>
       <c r="L249" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -7456,7 +7459,7 @@
         <v>units</v>
       </c>
       <c r="L250" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -7486,7 +7489,7 @@
         <v>units</v>
       </c>
       <c r="L251" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -7516,7 +7519,7 @@
         <v>units</v>
       </c>
       <c r="L252" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -7546,7 +7549,7 @@
         <v>units</v>
       </c>
       <c r="L253" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -7576,7 +7579,7 @@
         <v>units</v>
       </c>
       <c r="L254" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -7606,7 +7609,7 @@
         <v>units</v>
       </c>
       <c r="L255" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -7636,7 +7639,7 @@
         <v>units</v>
       </c>
       <c r="L256" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -7666,7 +7669,7 @@
         <v>units</v>
       </c>
       <c r="L257" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -7696,7 +7699,7 @@
         <v>units</v>
       </c>
       <c r="L258" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7726,7 +7729,7 @@
         <v>units</v>
       </c>
       <c r="L259" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7756,7 +7759,7 @@
         <v>units</v>
       </c>
       <c r="L260" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7786,7 +7789,7 @@
         <v>units</v>
       </c>
       <c r="L261" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -7816,7 +7819,7 @@
         <v>units</v>
       </c>
       <c r="L262" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -7846,7 +7849,7 @@
         <v>units</v>
       </c>
       <c r="L263" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -7876,7 +7879,7 @@
         <v>units</v>
       </c>
       <c r="L264" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -7906,7 +7909,7 @@
         <v>units</v>
       </c>
       <c r="L265" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -7936,7 +7939,7 @@
         <v>units</v>
       </c>
       <c r="L266" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -7966,7 +7969,7 @@
         <v>units</v>
       </c>
       <c r="L267" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -7996,7 +7999,7 @@
         <v>units</v>
       </c>
       <c r="L268" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -8026,7 +8029,7 @@
         <v>units</v>
       </c>
       <c r="L269" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -8056,7 +8059,7 @@
         <v>units</v>
       </c>
       <c r="L270" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -8086,7 +8089,7 @@
         <v>units</v>
       </c>
       <c r="L271" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -8116,7 +8119,7 @@
         <v>units</v>
       </c>
       <c r="L272" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -8142,7 +8145,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -8168,7 +8171,7 @@
       </c>
       <c r="K274" s="2"/>
       <c r="L274" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -8194,7 +8197,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -8220,7 +8223,7 @@
       </c>
       <c r="K276" s="2"/>
       <c r="L276" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -8246,7 +8249,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -8272,7 +8275,7 @@
       </c>
       <c r="K278" s="2"/>
       <c r="L278" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -8298,7 +8301,7 @@
       </c>
       <c r="K279" s="2"/>
       <c r="L279" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -8324,7 +8327,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -8350,7 +8353,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -8376,7 +8379,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -8402,7 +8405,7 @@
       </c>
       <c r="K283" s="2"/>
       <c r="L283" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -8428,7 +8431,7 @@
       </c>
       <c r="K284" s="2"/>
       <c r="L284" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -8454,7 +8457,7 @@
       </c>
       <c r="K285" s="2"/>
       <c r="L285" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -8479,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="L286" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -8504,7 +8507,7 @@
         <v>1</v>
       </c>
       <c r="L287" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -8529,7 +8532,7 @@
         <v>1</v>
       </c>
       <c r="L288" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -8554,7 +8557,7 @@
         <v>1</v>
       </c>
       <c r="L289" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -8579,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="L290" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -8604,7 +8607,7 @@
         <v>1</v>
       </c>
       <c r="L291" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -8629,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="L292" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -8654,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="L293" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -8679,7 +8682,7 @@
         <v>1</v>
       </c>
       <c r="L294" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -8704,7 +8707,7 @@
         <v>1</v>
       </c>
       <c r="L295" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -8729,7 +8732,7 @@
         <v>1</v>
       </c>
       <c r="L296" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -8754,7 +8757,7 @@
         <v>1</v>
       </c>
       <c r="L297" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -8779,7 +8782,7 @@
         <v>1</v>
       </c>
       <c r="L298" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -8804,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="L299" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -8829,7 +8832,7 @@
         <v>1</v>
       </c>
       <c r="L300" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -8854,7 +8857,7 @@
         <v>1</v>
       </c>
       <c r="L301" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -8879,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="L302" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -8904,7 +8907,7 @@
         <v>1</v>
       </c>
       <c r="L303" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -8929,7 +8932,7 @@
         <v>1</v>
       </c>
       <c r="L304" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -8954,7 +8957,7 @@
         <v>0</v>
       </c>
       <c r="L305" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -8979,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="L306" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -9004,7 +9007,7 @@
         <v>0</v>
       </c>
       <c r="L307" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -9029,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="L308" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -9054,7 +9057,7 @@
         <v>0</v>
       </c>
       <c r="L309" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -9079,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="L310" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -9104,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="L311" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -9129,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="L312" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -9154,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -9179,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="L314" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -9204,7 +9207,7 @@
         <v>0</v>
       </c>
       <c r="L315" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -9229,7 +9232,7 @@
         <v>0</v>
       </c>
       <c r="L316" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -9254,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="L317" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -9279,7 +9282,7 @@
         <v>0</v>
       </c>
       <c r="L318" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -9304,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="L319" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -9329,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="L320" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -9354,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="L321" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -9379,7 +9382,7 @@
         <v>0</v>
       </c>
       <c r="L322" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -9404,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="L323" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -9429,7 +9432,7 @@
         <v>0</v>
       </c>
       <c r="L324" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -9454,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="L325" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -9479,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="L326" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -9504,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="L327" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -9529,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="L328" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -9554,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="L329" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -9579,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="L330" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -9604,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="L331" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -9629,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -9654,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="L333" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -9679,7 +9682,7 @@
         <v>0</v>
       </c>
       <c r="L334" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -9704,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="L335" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -9729,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="L336" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.2">
@@ -10288,16 +10291,16 @@
         <v>6.4910630297733835E-6</v>
       </c>
       <c r="H360" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J360" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K360" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L360" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -10326,16 +10329,16 @@
         <v>6.3042485314316079E-6</v>
       </c>
       <c r="H361" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J361" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K361" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L361" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -10364,16 +10367,16 @@
         <v>5.5421686626796339E-6</v>
       </c>
       <c r="H362" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J362" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K362" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L362" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -10402,16 +10405,16 @@
         <v>5.7190219795282809E-6</v>
       </c>
       <c r="H363" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J363" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K363" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L363" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -10440,16 +10443,16 @@
         <v>6.1088977488540743E-6</v>
       </c>
       <c r="H364" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J364" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L364" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -10478,16 +10481,16 @@
         <v>6.1088977488540743E-6</v>
       </c>
       <c r="H365" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J365" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L365" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -10516,16 +10519,16 @@
         <v>5.8203289819894234E-6</v>
       </c>
       <c r="H366" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J366" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K366" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L366" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
@@ -10554,16 +10557,16 @@
         <v>5.5735056497790744E-6</v>
       </c>
       <c r="H367" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J367" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K367" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L367" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
@@ -10592,16 +10595,16 @@
         <v>5.2752293686874E-6</v>
       </c>
       <c r="H368" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J368" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K368" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L368" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.2">
@@ -10999,16 +11002,16 @@
         <v>2.2514008481097408E-5</v>
       </c>
       <c r="H385" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J385" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K385" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L385" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -11037,16 +11040,16 @@
         <v>2.2447888045029572E-5</v>
       </c>
       <c r="H386" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J386" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K386" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L386" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -11075,16 +11078,16 @@
         <v>2.2987987607015244E-5</v>
       </c>
       <c r="H387" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J387" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K387" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L387" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -11113,16 +11116,16 @@
         <v>2.3591067528804226E-5</v>
       </c>
       <c r="H388" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J388" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K388" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L388" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -11151,16 +11154,16 @@
         <v>2.46167661170131E-5</v>
       </c>
       <c r="H389" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J389" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L389" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -11189,16 +11192,16 @@
         <v>2.5478352931108559E-5</v>
       </c>
       <c r="H390" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J390" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L390" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -11227,16 +11230,16 @@
         <v>2.622128946597794E-5</v>
       </c>
       <c r="H391" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J391" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K391" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L391" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
@@ -11265,16 +11268,16 @@
         <v>2.7008854697288231E-5</v>
       </c>
       <c r="H392" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J392" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K392" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L392" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -11303,16 +11306,16 @@
         <v>2.7544165330928177E-5</v>
       </c>
       <c r="H393" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J393" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K393" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L393" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -11341,16 +11344,16 @@
         <v>2.8734984508769054E-5</v>
       </c>
       <c r="H394" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J394" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K394" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L394" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -11379,16 +11382,16 @@
         <v>2.9454743272957874E-5</v>
       </c>
       <c r="H395" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J395" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K395" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L395" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -11417,16 +11420,16 @@
         <v>2.9062759997462238E-5</v>
       </c>
       <c r="H396" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J396" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K396" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L396" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -11455,16 +11458,16 @@
         <v>2.8152876166970784E-5</v>
       </c>
       <c r="H397" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J397" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K397" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L397" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -11555,22 +11558,22 @@
         <v>1990</v>
       </c>
       <c r="F401" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G401">
         <v>1.6619623743333447</v>
       </c>
       <c r="H401" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J401" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K401" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L401" t="s">
         <v>59</v>
-      </c>
-      <c r="L401" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -11592,22 +11595,22 @@
         <v>1991</v>
       </c>
       <c r="F402" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G402">
         <v>1.6529349561812849</v>
       </c>
       <c r="H402" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J402" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K402" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L402" t="s">
         <v>59</v>
-      </c>
-      <c r="L402" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -11629,22 +11632,22 @@
         <v>1992</v>
       </c>
       <c r="F403" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G403">
         <v>1.6439015880381007</v>
       </c>
       <c r="H403" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J403" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K403" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L403" t="s">
         <v>59</v>
-      </c>
-      <c r="L403" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -11666,22 +11669,22 @@
         <v>1993</v>
       </c>
       <c r="F404" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G404">
         <v>1.6348977095326076</v>
       </c>
       <c r="H404" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J404" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K404" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L404" t="s">
         <v>59</v>
-      </c>
-      <c r="L404" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -11703,22 +11706,22 @@
         <v>1994</v>
       </c>
       <c r="F405" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G405">
         <v>1.6359409990814882</v>
       </c>
       <c r="H405" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J405" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K405" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L405" t="s">
         <v>59</v>
-      </c>
-      <c r="L405" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -11740,22 +11743,22 @@
         <v>1995</v>
       </c>
       <c r="F406" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G406">
         <v>1.627796211649325</v>
       </c>
       <c r="H406" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J406" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K406" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L406" t="s">
         <v>59</v>
-      </c>
-      <c r="L406" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
@@ -11777,22 +11780,22 @@
         <v>1996</v>
       </c>
       <c r="F407" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G407">
         <v>1.6201500029414151</v>
       </c>
       <c r="H407" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J407" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K407" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L407" t="s">
         <v>59</v>
-      </c>
-      <c r="L407" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -11814,22 +11817,22 @@
         <v>1997</v>
       </c>
       <c r="F408" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G408">
         <v>1.6129948320503564</v>
       </c>
       <c r="H408" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J408" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K408" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L408" t="s">
         <v>59</v>
-      </c>
-      <c r="L408" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -11851,22 +11854,22 @@
         <v>1998</v>
       </c>
       <c r="F409" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G409">
         <v>1.6062654456809142</v>
       </c>
       <c r="H409" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J409" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K409" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L409" t="s">
         <v>59</v>
-      </c>
-      <c r="L409" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
@@ -11888,22 +11891,22 @@
         <v>1999</v>
       </c>
       <c r="F410" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G410">
         <v>1.5998922064513665</v>
       </c>
       <c r="H410" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J410" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K410" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L410" t="s">
         <v>59</v>
-      </c>
-      <c r="L410" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
@@ -11925,22 +11928,22 @@
         <v>2000</v>
       </c>
       <c r="F411" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G411">
         <v>1.5938163690116243</v>
       </c>
       <c r="H411" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J411" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K411" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L411" t="s">
         <v>59</v>
-      </c>
-      <c r="L411" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -11962,22 +11965,22 @@
         <v>2001</v>
       </c>
       <c r="F412" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G412">
         <v>1.5906754879369145</v>
       </c>
       <c r="H412" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J412" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K412" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L412" t="s">
         <v>59</v>
-      </c>
-      <c r="L412" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -11999,22 +12002,22 @@
         <v>2002</v>
       </c>
       <c r="F413" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G413">
         <v>1.587189549799211</v>
       </c>
       <c r="H413" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J413" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K413" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L413" t="s">
         <v>59</v>
-      </c>
-      <c r="L413" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -12036,22 +12039,22 @@
         <v>2003</v>
       </c>
       <c r="F414" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G414">
         <v>1.5834524958984122</v>
       </c>
       <c r="H414" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J414" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K414" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L414" t="s">
         <v>59</v>
-      </c>
-      <c r="L414" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
@@ -12073,22 +12076,22 @@
         <v>2004</v>
       </c>
       <c r="F415" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G415">
         <v>1.5795519905141138</v>
       </c>
       <c r="H415" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J415" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K415" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L415" t="s">
         <v>59</v>
-      </c>
-      <c r="L415" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -12110,22 +12113,22 @@
         <v>2005</v>
       </c>
       <c r="F416" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G416">
         <v>1.5742273401858171</v>
       </c>
       <c r="H416" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J416" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K416" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L416" t="s">
         <v>59</v>
-      </c>
-      <c r="L416" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -12147,22 +12150,22 @@
         <v>2006</v>
       </c>
       <c r="F417" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G417">
         <v>1.5770757432902991</v>
       </c>
       <c r="H417" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J417" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K417" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L417" t="s">
         <v>59</v>
-      </c>
-      <c r="L417" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
@@ -12184,22 +12187,22 @@
         <v>2007</v>
       </c>
       <c r="F418" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G418">
         <v>1.5810502599514888</v>
       </c>
       <c r="H418" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J418" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K418" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L418" t="s">
         <v>59</v>
-      </c>
-      <c r="L418" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -12221,22 +12224,22 @@
         <v>2008</v>
       </c>
       <c r="F419" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G419">
         <v>1.5868573677903355</v>
       </c>
       <c r="H419" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J419" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K419" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L419" t="s">
         <v>59</v>
-      </c>
-      <c r="L419" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
@@ -12258,22 +12261,22 @@
         <v>2009</v>
       </c>
       <c r="F420" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G420">
         <v>1.5941421065031705</v>
       </c>
       <c r="H420" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J420" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K420" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L420" t="s">
         <v>59</v>
-      </c>
-      <c r="L420" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
@@ -12295,22 +12298,22 @@
         <v>2010</v>
       </c>
       <c r="F421" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G421">
         <v>1.6027499464678339</v>
       </c>
       <c r="H421" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J421" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K421" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L421" t="s">
         <v>59</v>
-      </c>
-      <c r="L421" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
@@ -12332,22 +12335,22 @@
         <v>2011</v>
       </c>
       <c r="F422" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G422">
         <v>1.5952803755147054</v>
       </c>
       <c r="H422" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J422" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K422" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L422" t="s">
         <v>59</v>
-      </c>
-      <c r="L422" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
@@ -12369,22 +12372,22 @@
         <v>2012</v>
       </c>
       <c r="F423" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G423">
         <v>1.5881061022973417</v>
       </c>
       <c r="H423" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J423" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K423" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L423" t="s">
         <v>59</v>
-      </c>
-      <c r="L423" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
@@ -12406,22 +12409,22 @@
         <v>2013</v>
       </c>
       <c r="F424" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G424">
         <v>1.580437033556165</v>
       </c>
       <c r="H424" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J424" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K424" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L424" t="s">
         <v>59</v>
-      </c>
-      <c r="L424" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
@@ -12443,22 +12446,22 @@
         <v>2014</v>
       </c>
       <c r="F425" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G425">
         <v>1.5720933219641362</v>
       </c>
       <c r="H425" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J425" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K425" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L425" t="s">
         <v>59</v>
-      </c>
-      <c r="L425" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -12480,22 +12483,22 @@
         <v>2015</v>
       </c>
       <c r="F426" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G426">
         <v>1.5638595650126308</v>
       </c>
       <c r="H426" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J426" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K426" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L426" t="s">
         <v>59</v>
-      </c>
-      <c r="L426" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
@@ -12517,22 +12520,22 @@
         <v>2016</v>
       </c>
       <c r="F427" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G427">
         <v>1.5655707775003618</v>
       </c>
       <c r="H427" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J427" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K427" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L427" t="s">
         <v>59</v>
-      </c>
-      <c r="L427" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
@@ -12554,22 +12557,22 @@
         <v>2017</v>
       </c>
       <c r="F428" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G428">
         <v>1.5669067656006332</v>
       </c>
       <c r="H428" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J428" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K428" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L428" t="s">
         <v>59</v>
-      </c>
-      <c r="L428" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
@@ -12591,22 +12594,22 @@
         <v>2018</v>
       </c>
       <c r="F429" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G429">
         <v>1.5680560012794198</v>
       </c>
       <c r="H429" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J429" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K429" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L429" t="s">
         <v>59</v>
-      </c>
-      <c r="L429" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
@@ -12628,22 +12631,22 @@
         <v>2019</v>
       </c>
       <c r="F430" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G430">
         <v>1.56899278989477</v>
       </c>
       <c r="H430" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J430" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K430" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L430" t="s">
         <v>59</v>
-      </c>
-      <c r="L430" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
@@ -12665,22 +12668,22 @@
         <v>2020</v>
       </c>
       <c r="F431" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G431">
         <v>1.5830542936008962</v>
       </c>
       <c r="H431" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J431" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K431" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L431" t="s">
         <v>59</v>
-      </c>
-      <c r="L431" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.2">
@@ -12702,22 +12705,22 @@
         <v>2021</v>
       </c>
       <c r="F432" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G432">
         <v>1.5781479220274037</v>
       </c>
       <c r="H432" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J432" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K432" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L432" t="s">
         <v>59</v>
-      </c>
-      <c r="L432" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
@@ -12739,23 +12742,23 @@
         <v>1990</v>
       </c>
       <c r="F433" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G433">
         <f>G401</f>
         <v>1.6619623743333447</v>
       </c>
       <c r="H433" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J433" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K433" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L433" t="s">
         <v>59</v>
-      </c>
-      <c r="L433" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.2">
@@ -12777,23 +12780,23 @@
         <v>1991</v>
       </c>
       <c r="F434" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G434">
         <f t="shared" ref="G434:G464" si="17">G402</f>
         <v>1.6529349561812849</v>
       </c>
       <c r="H434" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J434" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K434" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L434" t="s">
         <v>59</v>
-      </c>
-      <c r="L434" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
@@ -12815,23 +12818,23 @@
         <v>1992</v>
       </c>
       <c r="F435" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G435">
         <f t="shared" si="17"/>
         <v>1.6439015880381007</v>
       </c>
       <c r="H435" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J435" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K435" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L435" t="s">
         <v>59</v>
-      </c>
-      <c r="L435" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
@@ -12853,23 +12856,23 @@
         <v>1993</v>
       </c>
       <c r="F436" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G436">
         <f t="shared" si="17"/>
         <v>1.6348977095326076</v>
       </c>
       <c r="H436" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J436" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K436" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L436" t="s">
         <v>59</v>
-      </c>
-      <c r="L436" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.2">
@@ -12891,23 +12894,23 @@
         <v>1994</v>
       </c>
       <c r="F437" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G437">
         <f t="shared" si="17"/>
         <v>1.6359409990814882</v>
       </c>
       <c r="H437" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J437" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K437" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L437" t="s">
         <v>59</v>
-      </c>
-      <c r="L437" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
@@ -12929,23 +12932,23 @@
         <v>1995</v>
       </c>
       <c r="F438" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G438">
         <f t="shared" si="17"/>
         <v>1.627796211649325</v>
       </c>
       <c r="H438" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J438" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K438" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L438" t="s">
         <v>59</v>
-      </c>
-      <c r="L438" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
@@ -12967,23 +12970,23 @@
         <v>1996</v>
       </c>
       <c r="F439" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G439">
         <f t="shared" si="17"/>
         <v>1.6201500029414151</v>
       </c>
       <c r="H439" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J439" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K439" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L439" t="s">
         <v>59</v>
-      </c>
-      <c r="L439" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
@@ -13005,23 +13008,23 @@
         <v>1997</v>
       </c>
       <c r="F440" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G440">
         <f t="shared" si="17"/>
         <v>1.6129948320503564</v>
       </c>
       <c r="H440" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J440" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K440" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L440" t="s">
         <v>59</v>
-      </c>
-      <c r="L440" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
@@ -13043,23 +13046,23 @@
         <v>1998</v>
       </c>
       <c r="F441" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G441">
         <f t="shared" si="17"/>
         <v>1.6062654456809142</v>
       </c>
       <c r="H441" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J441" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K441" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L441" t="s">
         <v>59</v>
-      </c>
-      <c r="L441" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
@@ -13081,23 +13084,23 @@
         <v>1999</v>
       </c>
       <c r="F442" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G442">
         <f t="shared" si="17"/>
         <v>1.5998922064513665</v>
       </c>
       <c r="H442" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J442" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K442" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L442" t="s">
         <v>59</v>
-      </c>
-      <c r="L442" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
@@ -13119,23 +13122,23 @@
         <v>2000</v>
       </c>
       <c r="F443" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G443">
         <f t="shared" si="17"/>
         <v>1.5938163690116243</v>
       </c>
       <c r="H443" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J443" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K443" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L443" t="s">
         <v>59</v>
-      </c>
-      <c r="L443" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
@@ -13157,23 +13160,23 @@
         <v>2001</v>
       </c>
       <c r="F444" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G444">
         <f t="shared" si="17"/>
         <v>1.5906754879369145</v>
       </c>
       <c r="H444" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J444" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K444" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L444" t="s">
         <v>59</v>
-      </c>
-      <c r="L444" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.2">
@@ -13195,23 +13198,23 @@
         <v>2002</v>
       </c>
       <c r="F445" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G445">
         <f t="shared" si="17"/>
         <v>1.587189549799211</v>
       </c>
       <c r="H445" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J445" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K445" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L445" t="s">
         <v>59</v>
-      </c>
-      <c r="L445" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
@@ -13233,23 +13236,23 @@
         <v>2003</v>
       </c>
       <c r="F446" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G446">
         <f t="shared" si="17"/>
         <v>1.5834524958984122</v>
       </c>
       <c r="H446" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J446" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K446" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L446" t="s">
         <v>59</v>
-      </c>
-      <c r="L446" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.2">
@@ -13271,23 +13274,23 @@
         <v>2004</v>
       </c>
       <c r="F447" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G447">
         <f t="shared" si="17"/>
         <v>1.5795519905141138</v>
       </c>
       <c r="H447" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J447" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K447" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L447" t="s">
         <v>59</v>
-      </c>
-      <c r="L447" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.2">
@@ -13309,23 +13312,23 @@
         <v>2005</v>
       </c>
       <c r="F448" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G448">
         <f t="shared" si="17"/>
         <v>1.5742273401858171</v>
       </c>
       <c r="H448" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J448" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K448" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L448" t="s">
         <v>59</v>
-      </c>
-      <c r="L448" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.2">
@@ -13347,23 +13350,23 @@
         <v>2006</v>
       </c>
       <c r="F449" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G449">
         <f t="shared" si="17"/>
         <v>1.5770757432902991</v>
       </c>
       <c r="H449" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J449" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K449" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L449" t="s">
         <v>59</v>
-      </c>
-      <c r="L449" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.2">
@@ -13385,23 +13388,23 @@
         <v>2007</v>
       </c>
       <c r="F450" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G450">
         <f t="shared" si="17"/>
         <v>1.5810502599514888</v>
       </c>
       <c r="H450" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J450" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K450" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L450" t="s">
         <v>59</v>
-      </c>
-      <c r="L450" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.2">
@@ -13423,23 +13426,23 @@
         <v>2008</v>
       </c>
       <c r="F451" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G451">
         <f t="shared" si="17"/>
         <v>1.5868573677903355</v>
       </c>
       <c r="H451" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J451" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K451" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L451" t="s">
         <v>59</v>
-      </c>
-      <c r="L451" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.2">
@@ -13461,23 +13464,23 @@
         <v>2009</v>
       </c>
       <c r="F452" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G452">
         <f t="shared" si="17"/>
         <v>1.5941421065031705</v>
       </c>
       <c r="H452" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J452" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K452" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L452" t="s">
         <v>59</v>
-      </c>
-      <c r="L452" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.2">
@@ -13499,23 +13502,23 @@
         <v>2010</v>
       </c>
       <c r="F453" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G453">
         <f t="shared" si="17"/>
         <v>1.6027499464678339</v>
       </c>
       <c r="H453" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J453" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K453" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L453" t="s">
         <v>59</v>
-      </c>
-      <c r="L453" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.2">
@@ -13537,23 +13540,23 @@
         <v>2011</v>
       </c>
       <c r="F454" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G454">
         <f t="shared" si="17"/>
         <v>1.5952803755147054</v>
       </c>
       <c r="H454" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J454" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K454" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L454" t="s">
         <v>59</v>
-      </c>
-      <c r="L454" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.2">
@@ -13575,23 +13578,23 @@
         <v>2012</v>
       </c>
       <c r="F455" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G455">
         <f t="shared" si="17"/>
         <v>1.5881061022973417</v>
       </c>
       <c r="H455" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J455" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K455" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L455" t="s">
         <v>59</v>
-      </c>
-      <c r="L455" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.2">
@@ -13613,23 +13616,23 @@
         <v>2013</v>
       </c>
       <c r="F456" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G456">
         <f t="shared" si="17"/>
         <v>1.580437033556165</v>
       </c>
       <c r="H456" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J456" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K456" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L456" t="s">
         <v>59</v>
-      </c>
-      <c r="L456" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.2">
@@ -13651,23 +13654,23 @@
         <v>2014</v>
       </c>
       <c r="F457" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G457">
         <f t="shared" si="17"/>
         <v>1.5720933219641362</v>
       </c>
       <c r="H457" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J457" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K457" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L457" t="s">
         <v>59</v>
-      </c>
-      <c r="L457" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.2">
@@ -13689,23 +13692,23 @@
         <v>2015</v>
       </c>
       <c r="F458" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G458">
         <f t="shared" si="17"/>
         <v>1.5638595650126308</v>
       </c>
       <c r="H458" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J458" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K458" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L458" t="s">
         <v>59</v>
-      </c>
-      <c r="L458" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.2">
@@ -13727,23 +13730,23 @@
         <v>2016</v>
       </c>
       <c r="F459" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G459">
         <f t="shared" si="17"/>
         <v>1.5655707775003618</v>
       </c>
       <c r="H459" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J459" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K459" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L459" t="s">
         <v>59</v>
-      </c>
-      <c r="L459" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.2">
@@ -13765,23 +13768,23 @@
         <v>2017</v>
       </c>
       <c r="F460" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G460">
         <f t="shared" si="17"/>
         <v>1.5669067656006332</v>
       </c>
       <c r="H460" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J460" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K460" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L460" t="s">
         <v>59</v>
-      </c>
-      <c r="L460" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.2">
@@ -13803,23 +13806,23 @@
         <v>2018</v>
       </c>
       <c r="F461" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G461">
         <f t="shared" si="17"/>
         <v>1.5680560012794198</v>
       </c>
       <c r="H461" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J461" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K461" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L461" t="s">
         <v>59</v>
-      </c>
-      <c r="L461" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.2">
@@ -13841,23 +13844,23 @@
         <v>2019</v>
       </c>
       <c r="F462" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G462">
         <f t="shared" si="17"/>
         <v>1.56899278989477</v>
       </c>
       <c r="H462" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J462" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K462" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L462" t="s">
         <v>59</v>
-      </c>
-      <c r="L462" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.2">
@@ -13879,23 +13882,23 @@
         <v>2020</v>
       </c>
       <c r="F463" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G463">
         <f t="shared" si="17"/>
         <v>1.5830542936008962</v>
       </c>
       <c r="H463" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J463" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K463" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L463" t="s">
         <v>59</v>
-      </c>
-      <c r="L463" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.2">
@@ -13917,46 +13920,49 @@
         <v>2021</v>
       </c>
       <c r="F464" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G464">
         <f t="shared" si="17"/>
         <v>1.5781479220274037</v>
       </c>
       <c r="H464" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J464" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K464" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L464" t="s">
         <v>59</v>
-      </c>
-      <c r="L464" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:L880" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="J15:L15 J16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"TODO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K15" r:id="rId1" xr:uid="{D11E7F0F-E127-5643-8C05-AF28547E6E27}"/>
-    <hyperlink ref="K16" r:id="rId2" xr:uid="{AB382EBD-FD85-A94C-A2D5-AE3D74C6342F}"/>
-    <hyperlink ref="K401" r:id="rId3" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
-    <hyperlink ref="K402:K464" r:id="rId4" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
-    <hyperlink ref="K64" r:id="rId5" xr:uid="{57AB3A29-B7EE-E947-B9C6-AC202A168188}"/>
-    <hyperlink ref="K49:K63" r:id="rId6" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{2359E783-4D2C-8F4A-A467-29657ABB57EB}"/>
-    <hyperlink ref="K65:K80" r:id="rId7" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{0289099E-436D-CD44-8E73-16472E7870FA}"/>
-    <hyperlink ref="K83:K112" r:id="rId8" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{85D40114-E1AF-3E41-AE4C-31D352EA8EA0}"/>
-    <hyperlink ref="K360" r:id="rId9" xr:uid="{304BA06C-2256-9E44-B420-9911B37CCC1D}"/>
-    <hyperlink ref="K361" r:id="rId10" xr:uid="{1BD66779-B8B5-9E44-9DC3-FDBFE0887938}"/>
-    <hyperlink ref="K362" r:id="rId11" xr:uid="{DF0DA803-69AB-E549-A5BE-182E84349BA5}"/>
-    <hyperlink ref="K363" r:id="rId12" xr:uid="{2667FEA3-E7FB-C942-A236-56CF2D4598A4}"/>
-    <hyperlink ref="K364" r:id="rId13" xr:uid="{4D982480-CFB7-AA43-BD92-07060ACFEBC1}"/>
-    <hyperlink ref="K365" r:id="rId14" xr:uid="{0C1C7DCA-C663-2A45-B774-CBCFCDEA64A5}"/>
-    <hyperlink ref="K366" r:id="rId15" xr:uid="{4D2DFAA8-B407-8C49-9E32-CB75D8A2381C}"/>
-    <hyperlink ref="K367" r:id="rId16" xr:uid="{94DD051E-2341-F249-9285-3D62C6C25FF0}"/>
-    <hyperlink ref="K368" r:id="rId17" xr:uid="{AE38823B-3828-494C-92DC-6CC00A3AA97A}"/>
+    <hyperlink ref="K401" r:id="rId1" xr:uid="{E0535359-E762-5E4F-9EF4-8DAD7165E39B}"/>
+    <hyperlink ref="K402:K464" r:id="rId2" display="https://www.bfs.admin.ch/bfs/fr/home/statistiques/mobilite-transports/transport-personnes/prestations.assetdetail.23725823.html" xr:uid="{68BAF866-93A1-6F40-AA85-EFFA516FB53B}"/>
+    <hyperlink ref="K64" r:id="rId3" xr:uid="{57AB3A29-B7EE-E947-B9C6-AC202A168188}"/>
+    <hyperlink ref="K49:K63" r:id="rId4" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{2359E783-4D2C-8F4A-A467-29657ABB57EB}"/>
+    <hyperlink ref="K65:K80" r:id="rId5" display="https://opendata.swiss/en/dataset/bestand-der-personenwagen-nach-technischen-merkmalen-ab-20052" xr:uid="{0289099E-436D-CD44-8E73-16472E7870FA}"/>
+    <hyperlink ref="K83:K112" r:id="rId6" display="https://opendata.swiss/en/dataset/neue-inverkehrsetzungen-von-strassenfahrzeugen-nach-fahrzeuggruppe-und-fahrzeugart2/resource/48e8a4f2-19ee-498d-ad6f-316180b0940b" xr:uid="{85D40114-E1AF-3E41-AE4C-31D352EA8EA0}"/>
+    <hyperlink ref="K360" r:id="rId7" xr:uid="{304BA06C-2256-9E44-B420-9911B37CCC1D}"/>
+    <hyperlink ref="K361" r:id="rId8" xr:uid="{1BD66779-B8B5-9E44-9DC3-FDBFE0887938}"/>
+    <hyperlink ref="K362" r:id="rId9" xr:uid="{DF0DA803-69AB-E549-A5BE-182E84349BA5}"/>
+    <hyperlink ref="K363" r:id="rId10" xr:uid="{2667FEA3-E7FB-C942-A236-56CF2D4598A4}"/>
+    <hyperlink ref="K364" r:id="rId11" xr:uid="{4D982480-CFB7-AA43-BD92-07060ACFEBC1}"/>
+    <hyperlink ref="K365" r:id="rId12" xr:uid="{0C1C7DCA-C663-2A45-B774-CBCFCDEA64A5}"/>
+    <hyperlink ref="K366" r:id="rId13" xr:uid="{4D2DFAA8-B407-8C49-9E32-CB75D8A2381C}"/>
+    <hyperlink ref="K367" r:id="rId14" xr:uid="{94DD051E-2341-F249-9285-3D62C6C25FF0}"/>
+    <hyperlink ref="K368" r:id="rId15" xr:uid="{AE38823B-3828-494C-92DC-6CC00A3AA97A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
